--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Selplg-Sele.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Selplg-Sele.xlsx
@@ -528,34 +528,34 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.53370517125614</v>
+        <v>78.14530633333334</v>
       </c>
       <c r="H2">
-        <v>5.53370517125614</v>
+        <v>234.435919</v>
       </c>
       <c r="I2">
-        <v>0.821140738900361</v>
+        <v>0.9738103308619316</v>
       </c>
       <c r="J2">
-        <v>0.821140738900361</v>
+        <v>0.9738103308619316</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="N2">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>17.29671440133428</v>
+        <v>572.1744107043525</v>
       </c>
       <c r="R2">
-        <v>17.29671440133428</v>
+        <v>5149.569696339172</v>
       </c>
       <c r="S2">
-        <v>0.821140738900361</v>
+        <v>0.9738103308619316</v>
       </c>
       <c r="T2">
-        <v>0.821140738900361</v>
+        <v>0.9738103308619316</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,34 +590,34 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.696941043598135</v>
+        <v>0.9293790000000001</v>
       </c>
       <c r="H3">
-        <v>0.696941043598135</v>
+        <v>2.788137</v>
       </c>
       <c r="I3">
-        <v>0.1034183545742198</v>
+        <v>0.01158148728249443</v>
       </c>
       <c r="J3">
-        <v>0.1034183545742198</v>
+        <v>0.01158148728249443</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="N3">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>2.178430149893293</v>
+        <v>6.804847361884001</v>
       </c>
       <c r="R3">
-        <v>2.178430149893293</v>
+        <v>61.24362625695601</v>
       </c>
       <c r="S3">
-        <v>0.1034183545742198</v>
+        <v>0.01158148728249443</v>
       </c>
       <c r="T3">
-        <v>0.1034183545742198</v>
+        <v>0.01158148728249443</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,34 +652,34 @@
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.508399735620254</v>
+        <v>1.172262</v>
       </c>
       <c r="H4">
-        <v>0.508399735620254</v>
+        <v>3.516786</v>
       </c>
       <c r="I4">
-        <v>0.07544090652541924</v>
+        <v>0.01460818185557397</v>
       </c>
       <c r="J4">
-        <v>0.07544090652541924</v>
+        <v>0.01460818185557397</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.12570219519085</v>
+        <v>7.321929333333333</v>
       </c>
       <c r="N4">
-        <v>3.12570219519085</v>
+        <v>21.965788</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.589106169662676</v>
+        <v>8.583219524152002</v>
       </c>
       <c r="R4">
-        <v>1.589106169662676</v>
+        <v>77.248975717368</v>
       </c>
       <c r="S4">
-        <v>0.07544090652541924</v>
+        <v>0.01460818185557397</v>
       </c>
       <c r="T4">
-        <v>0.07544090652541924</v>
+        <v>0.01460818185557397</v>
       </c>
     </row>
   </sheetData>
